--- a/outputs-GTDB-r202/g__Lactococcus.xlsx
+++ b/outputs-GTDB-r202/g__Lactococcus.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>s__Lactococcus garvieae</t>
+          <t>s__Lactococcus garvieae(reject)</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>s__Lactococcus garvieae</t>
+          <t>s__Lactococcus garvieae(reject)</t>
         </is>
       </c>
     </row>
